--- a/file_tracker.xlsx
+++ b/file_tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna_\Documents\CV Feb 23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna_\Documents\Cape Verde\peroxy_campaign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04ACF9-E18B-4BC6-B4A0-1A80BBD440DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CA756-D3D7-4579-806F-E12002EDDE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{54B36BDB-9480-4C9C-BDB1-DCD9DC035406}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,6 +657,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2BF64-D9AC-4D32-B815-934444447F29}">
   <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4610,7 +4613,7 @@
       <c r="B165" s="16">
         <v>0.72499999999999998</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D165" s="17" t="s">
@@ -6162,7 +6165,7 @@
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="15"/>
       <c r="B248" s="16">
-        <f t="shared" ref="B247:B248" si="18">B247+TIME(0,30,)</f>
+        <f t="shared" ref="B248" si="18">B247+TIME(0,30,)</f>
         <v>0.68819444444444444</v>
       </c>
       <c r="C248" s="16" t="s">
